--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.4_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2952547686868131</v>
+        <v>0.3317716226193974</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2952547686868131, 'ngram_match_score': 0.1494940897875517, 'weighted_ngram_match_score': 0.15782347976572142, 'syntax_match_score': 0.5141509433962265, 'dataflow_match_score': 0.3595505617977528}</t>
+          <t>{'codebleu': 0.3317716226193974, 'ngram_match_score': 0.1494940897875517, 'weighted_ngram_match_score': 0.15782347976572142, 'syntax_match_score': 0.5141509433962265, 'dataflow_match_score': 0.5056179775280899}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
